--- a/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44.62300474557222</v>
+        <v>40.35273080373261</v>
       </c>
       <c r="D2" t="n">
         <v>0.0007432820064133916</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05929019675229672</v>
+        <v>0.05768901818751787</v>
       </c>
       <c r="F2" t="n">
-        <v>43.18686449955614</v>
+        <v>40.32575735259291</v>
       </c>
       <c r="G2" t="n">
-        <v>42.76750970111249</v>
+        <v>39.69290616083104</v>
       </c>
       <c r="H2" t="n">
-        <v>43.60988169308879</v>
+        <v>40.93257907186761</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007334178177906546</v>
+        <v>0.0007613987687944709</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006843983561697831</v>
+        <v>0.0007110440303010838</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0008251365855616501</v>
+        <v>0.0008537742827225605</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05966247460028618</v>
+        <v>0.05766958104364201</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05396839446552559</v>
+        <v>0.0572362877039788</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06606894449473132</v>
+        <v>0.05810820245610884</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,77 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0009925612638565682</v>
+        <v>1.480883976174689e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>5.080604675936302e-05</v>
+        <v>7.401131980785392e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002573059456463635</v>
+        <v>4.180993561973118e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002867846118311971</v>
+        <v>1.298066649109086e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>4.283939657977543e-05</v>
+        <v>6.918286695062993e-09</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0006480813382507007</v>
+        <v>3.648888266881516e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001673245042092994</v>
+        <v>1.525364180330135e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>4.043298607688693e-05</v>
+        <v>7.646185072349991e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0003260537572210286</v>
+        <v>4.304144698298873e-05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40.35273080373261</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0007432820064133916</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.05768901818751787</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40.32577216143267</v>
+      </c>
+      <c r="G4" t="n">
+        <v>39.69290616823217</v>
+      </c>
+      <c r="H4" t="n">
+        <v>40.93262088180324</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0007743794352855617</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0007110509485877788</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0008902631653913758</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.05768483468544532</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.05723629535016387</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.05815124390309181</v>
       </c>
     </row>
   </sheetData>

--- a/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F2" t="n">
-        <v>40.32575735259291</v>
+        <v>40.32060325799205</v>
       </c>
       <c r="G2" t="n">
-        <v>39.69290616083104</v>
+        <v>39.67546037221035</v>
       </c>
       <c r="H2" t="n">
-        <v>40.93257907186761</v>
+        <v>40.95434293043651</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007613987687944709</v>
+        <v>0.0007617811570131555</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007110440303010838</v>
+        <v>0.0007110563723136485</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0008537742827225605</v>
+        <v>0.0008547685285345647</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05766958104364201</v>
+        <v>0.05766821399896885</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0572362877039788</v>
+        <v>0.05723096128650838</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05810820245610884</v>
+        <v>0.05811550414546574</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.480883976174689e-05</v>
+        <v>1.482900167181169e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>7.401131980785392e-09</v>
+        <v>5.023164888960514e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>4.180993561973118e-05</v>
+        <v>4.174173713924095e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>1.298066649109086e-05</v>
+        <v>1.298476862284443e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>6.918286695062993e-09</v>
+        <v>4.693368378058987e-09</v>
       </c>
       <c r="K3" t="n">
-        <v>3.648888266881516e-05</v>
+        <v>3.639934796928349e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.525364180330135e-05</v>
+        <v>1.527492995317942e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>7.646185072349991e-09</v>
+        <v>5.189443700012505e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>4.304144698298873e-05</v>
+        <v>4.29731484307345e-05</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F4" t="n">
-        <v>40.32577216143267</v>
+        <v>40.32061808699373</v>
       </c>
       <c r="G4" t="n">
-        <v>39.69290616823217</v>
+        <v>39.67546037723351</v>
       </c>
       <c r="H4" t="n">
-        <v>40.93262088180324</v>
+        <v>40.95438467217365</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0007743794352855617</v>
+        <v>0.0007747659256359999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0007110509485877788</v>
+        <v>0.0007110610656820265</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0008902631653913758</v>
+        <v>0.0008911678765038482</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05768483468544532</v>
+        <v>0.05768348892892202</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05723629535016387</v>
+        <v>0.05723096647595208</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05815124390309181</v>
+        <v>0.05815847729389648</v>
       </c>
     </row>
   </sheetData>

--- a/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F2" t="n">
-        <v>40.32060325799205</v>
+        <v>40.32364397296318</v>
       </c>
       <c r="G2" t="n">
-        <v>39.67546037221035</v>
+        <v>39.68057028333582</v>
       </c>
       <c r="H2" t="n">
-        <v>40.95434293043651</v>
+        <v>40.98317458832413</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007617811570131555</v>
+        <v>0.000761595484674244</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007110563723136485</v>
+        <v>0.0007110947592888342</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0008547685285345647</v>
+        <v>0.0008564110728550661</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05766821399896885</v>
+        <v>0.05766856263294638</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05723096128650838</v>
+        <v>0.05723560521202441</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05811550414546574</v>
+        <v>0.05811785917621674</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.482900167181169e-05</v>
+        <v>1.480428201179558e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>5.023164888960514e-09</v>
+        <v>5.511847492902186e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>4.174173713924095e-05</v>
+        <v>4.197381530217415e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>1.298476862284443e-05</v>
+        <v>1.296847474127172e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>4.693368378058987e-09</v>
+        <v>5.121929250915991e-09</v>
       </c>
       <c r="K3" t="n">
-        <v>3.639934796928349e-05</v>
+        <v>3.665257351095212e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.527492995317942e-05</v>
+        <v>1.524844910802202e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>5.189443700012505e-09</v>
+        <v>5.745657754696681e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>4.29731484307345e-05</v>
+        <v>4.321671004705058e-05</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F4" t="n">
-        <v>40.32061808699373</v>
+        <v>40.32365877724519</v>
       </c>
       <c r="G4" t="n">
-        <v>39.67546037723351</v>
+        <v>39.68057028884766</v>
       </c>
       <c r="H4" t="n">
-        <v>40.95438467217365</v>
+        <v>40.98321656213943</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0007747659256359999</v>
+        <v>0.0007745639594155157</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0007110610656820265</v>
+        <v>0.000711099881218085</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0008911678765038482</v>
+        <v>0.0008930636463660185</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05768348892892202</v>
+        <v>0.05768381108205441</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05723096647595208</v>
+        <v>0.05723561095768216</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05815847729389648</v>
+        <v>0.0581610758862638</v>
       </c>
     </row>
   </sheetData>
